--- a/docs/ver1/basic design.xlsx
+++ b/docs/ver1/basic design.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\vspace\docs\ver1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15480" windowHeight="6480" activeTab="2"/>
   </bookViews>
@@ -240,8 +245,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -958,25 +963,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1028,6 +1014,55 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1049,42 +1084,20 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1229,8 +1242,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2362200" y="638175"/>
-          <a:ext cx="762000" cy="228600"/>
+          <a:off x="2705100" y="638175"/>
+          <a:ext cx="876300" cy="228600"/>
           <a:chOff x="2171700" y="645102"/>
           <a:chExt cx="762000" cy="227734"/>
         </a:xfrm>
@@ -1951,8 +1964,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3628159" y="1736147"/>
-          <a:ext cx="1203614" cy="1978603"/>
+          <a:off x="4171084" y="1736147"/>
+          <a:ext cx="1375064" cy="1978603"/>
           <a:chOff x="3437659" y="1740477"/>
           <a:chExt cx="1203614" cy="1991591"/>
         </a:xfrm>
@@ -2408,8 +2421,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3343274" y="633846"/>
-          <a:ext cx="963758" cy="232929"/>
+          <a:off x="3829049" y="633846"/>
+          <a:ext cx="1106633" cy="232929"/>
           <a:chOff x="3152774" y="640773"/>
           <a:chExt cx="963758" cy="232063"/>
         </a:xfrm>
@@ -2506,8 +2519,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7853795" y="677141"/>
-          <a:ext cx="2156114" cy="200025"/>
+          <a:off x="9025370" y="677141"/>
+          <a:ext cx="2470439" cy="200025"/>
           <a:chOff x="7853795" y="686666"/>
           <a:chExt cx="2156114" cy="200025"/>
         </a:xfrm>
@@ -3012,8 +3025,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7853795" y="6696941"/>
-          <a:ext cx="2156114" cy="190500"/>
+          <a:off x="9025370" y="6696941"/>
+          <a:ext cx="2470439" cy="190500"/>
           <a:chOff x="7853795" y="686666"/>
           <a:chExt cx="2156114" cy="200025"/>
         </a:xfrm>
@@ -3106,8 +3119,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2085975" y="7000874"/>
-          <a:ext cx="5724525" cy="4162426"/>
+          <a:off x="2371725" y="7000874"/>
+          <a:ext cx="6610350" cy="4162426"/>
           <a:chOff x="2085975" y="6943724"/>
           <a:chExt cx="5724525" cy="4162426"/>
         </a:xfrm>
@@ -3506,8 +3519,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="247650" y="6657975"/>
-          <a:ext cx="1600200" cy="247650"/>
+          <a:off x="276225" y="6657975"/>
+          <a:ext cx="1828800" cy="247650"/>
           <a:chOff x="247650" y="6600825"/>
           <a:chExt cx="1600200" cy="247650"/>
         </a:xfrm>
@@ -3650,8 +3663,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7853795" y="12621491"/>
-          <a:ext cx="2156114" cy="190500"/>
+          <a:off x="9025370" y="12621491"/>
+          <a:ext cx="2470439" cy="190500"/>
           <a:chOff x="7853795" y="686666"/>
           <a:chExt cx="2156114" cy="200025"/>
         </a:xfrm>
@@ -3744,8 +3757,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="266700" y="12592050"/>
-          <a:ext cx="1600200" cy="247650"/>
+          <a:off x="295275" y="12592050"/>
+          <a:ext cx="1828800" cy="247650"/>
           <a:chOff x="247650" y="6600825"/>
           <a:chExt cx="1600200" cy="247650"/>
         </a:xfrm>
@@ -4511,7 +4524,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4543,9 +4556,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4577,6 +4591,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4752,25 +4767,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="3.28515625" style="8"/>
-    <col min="4" max="4" width="10.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="8" customWidth="1"/>
+    <col min="1" max="3" width="3.25" style="8"/>
+    <col min="4" max="4" width="10.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="8" customWidth="1"/>
+    <col min="6" max="6" width="31.75" style="8" customWidth="1"/>
     <col min="7" max="7" width="16" style="8" customWidth="1"/>
-    <col min="8" max="21" width="6.85546875" style="8" customWidth="1"/>
-    <col min="22" max="16384" width="3.28515625" style="8"/>
+    <col min="8" max="21" width="6.875" style="8" customWidth="1"/>
+    <col min="22" max="16384" width="3.25" style="8"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:21" ht="23.25">
+    <row r="3" spans="4:21" ht="23.25" x14ac:dyDescent="0.25">
       <c r="D3" s="16" t="s">
         <v>0</v>
       </c>
@@ -4778,7 +4793,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
     </row>
-    <row r="5" spans="4:21">
+    <row r="5" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D5" s="14" t="s">
         <v>1</v>
       </c>
@@ -4806,7 +4821,7 @@
       <c r="T5" s="9"/>
       <c r="U5" s="9"/>
     </row>
-    <row r="6" spans="4:21">
+    <row r="6" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
@@ -4834,7 +4849,7 @@
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
     </row>
-    <row r="7" spans="4:21">
+    <row r="7" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D7" s="5"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -4854,7 +4869,7 @@
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
     </row>
-    <row r="8" spans="4:21">
+    <row r="8" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D8" s="5"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -4874,7 +4889,7 @@
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
     </row>
-    <row r="9" spans="4:21">
+    <row r="9" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D9" s="5"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -4894,7 +4909,7 @@
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
     </row>
-    <row r="10" spans="4:21">
+    <row r="10" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D10" s="6"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -4914,7 +4929,7 @@
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
     </row>
-    <row r="11" spans="4:21">
+    <row r="11" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D11" s="7"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -4934,7 +4949,7 @@
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
     </row>
-    <row r="12" spans="4:21">
+    <row r="12" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D12" s="7"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -4961,16 +4976,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AS27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:45">
+    <row r="2" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B2" s="17"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -5009,173 +5024,173 @@
       <c r="AR2" s="18"/>
       <c r="AS2" s="19"/>
     </row>
-    <row r="3" spans="2:45">
+    <row r="3" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B3" s="20"/>
       <c r="C3" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="98"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="124"/>
       <c r="I3" s="21"/>
       <c r="J3" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="98"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="124"/>
       <c r="P3" s="21"/>
-      <c r="Q3" s="105" t="s">
+      <c r="Q3" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="106"/>
-      <c r="S3" s="106"/>
-      <c r="T3" s="106"/>
-      <c r="U3" s="106"/>
-      <c r="V3" s="107"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="116"/>
       <c r="W3" s="22"/>
       <c r="AE3" s="20"/>
       <c r="AF3" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="AG3" s="114"/>
-      <c r="AH3" s="114"/>
-      <c r="AI3" s="114"/>
-      <c r="AJ3" s="114"/>
-      <c r="AK3" s="115"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="97"/>
+      <c r="AI3" s="97"/>
+      <c r="AJ3" s="97"/>
+      <c r="AK3" s="98"/>
       <c r="AL3" s="21"/>
       <c r="AM3" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="AN3" s="114"/>
-      <c r="AO3" s="114"/>
-      <c r="AP3" s="114"/>
-      <c r="AQ3" s="114"/>
-      <c r="AR3" s="115"/>
+      <c r="AN3" s="97"/>
+      <c r="AO3" s="97"/>
+      <c r="AP3" s="97"/>
+      <c r="AQ3" s="97"/>
+      <c r="AR3" s="98"/>
       <c r="AS3" s="22"/>
     </row>
-    <row r="4" spans="2:45">
+    <row r="4" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B4" s="20"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="101"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="127"/>
       <c r="I4" s="21"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="101"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="126"/>
+      <c r="M4" s="126"/>
+      <c r="N4" s="126"/>
+      <c r="O4" s="127"/>
       <c r="P4" s="21"/>
-      <c r="Q4" s="108"/>
-      <c r="R4" s="109"/>
-      <c r="S4" s="109"/>
-      <c r="T4" s="109"/>
-      <c r="U4" s="109"/>
-      <c r="V4" s="110"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="119"/>
       <c r="W4" s="22"/>
       <c r="AE4" s="20"/>
-      <c r="AF4" s="116"/>
-      <c r="AG4" s="117"/>
-      <c r="AH4" s="117"/>
-      <c r="AI4" s="117"/>
-      <c r="AJ4" s="117"/>
-      <c r="AK4" s="118"/>
+      <c r="AF4" s="99"/>
+      <c r="AG4" s="100"/>
+      <c r="AH4" s="100"/>
+      <c r="AI4" s="100"/>
+      <c r="AJ4" s="100"/>
+      <c r="AK4" s="101"/>
       <c r="AL4" s="21"/>
-      <c r="AM4" s="116"/>
-      <c r="AN4" s="117"/>
-      <c r="AO4" s="117"/>
-      <c r="AP4" s="117"/>
-      <c r="AQ4" s="117"/>
-      <c r="AR4" s="118"/>
+      <c r="AM4" s="99"/>
+      <c r="AN4" s="100"/>
+      <c r="AO4" s="100"/>
+      <c r="AP4" s="100"/>
+      <c r="AQ4" s="100"/>
+      <c r="AR4" s="101"/>
       <c r="AS4" s="22"/>
     </row>
-    <row r="5" spans="2:45">
+    <row r="5" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B5" s="20"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="101"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="127"/>
       <c r="I5" s="21"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="101"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="126"/>
+      <c r="O5" s="127"/>
       <c r="P5" s="21"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="109"/>
-      <c r="S5" s="109"/>
-      <c r="T5" s="109"/>
-      <c r="U5" s="109"/>
-      <c r="V5" s="110"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
+      <c r="T5" s="118"/>
+      <c r="U5" s="118"/>
+      <c r="V5" s="119"/>
       <c r="W5" s="22"/>
       <c r="AE5" s="20"/>
-      <c r="AF5" s="116"/>
-      <c r="AG5" s="117"/>
-      <c r="AH5" s="117"/>
-      <c r="AI5" s="117"/>
-      <c r="AJ5" s="117"/>
-      <c r="AK5" s="118"/>
+      <c r="AF5" s="99"/>
+      <c r="AG5" s="100"/>
+      <c r="AH5" s="100"/>
+      <c r="AI5" s="100"/>
+      <c r="AJ5" s="100"/>
+      <c r="AK5" s="101"/>
       <c r="AL5" s="21"/>
-      <c r="AM5" s="116"/>
-      <c r="AN5" s="117"/>
-      <c r="AO5" s="117"/>
-      <c r="AP5" s="117"/>
-      <c r="AQ5" s="117"/>
-      <c r="AR5" s="118"/>
+      <c r="AM5" s="99"/>
+      <c r="AN5" s="100"/>
+      <c r="AO5" s="100"/>
+      <c r="AP5" s="100"/>
+      <c r="AQ5" s="100"/>
+      <c r="AR5" s="101"/>
       <c r="AS5" s="22"/>
     </row>
-    <row r="6" spans="2:45">
+    <row r="6" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B6" s="20"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="104"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="130"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="104"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="129"/>
+      <c r="O6" s="130"/>
       <c r="P6" s="21"/>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="112"/>
-      <c r="S6" s="112"/>
-      <c r="T6" s="112"/>
-      <c r="U6" s="112"/>
-      <c r="V6" s="113"/>
+      <c r="Q6" s="120"/>
+      <c r="R6" s="121"/>
+      <c r="S6" s="121"/>
+      <c r="T6" s="121"/>
+      <c r="U6" s="121"/>
+      <c r="V6" s="122"/>
       <c r="W6" s="22"/>
       <c r="AE6" s="20"/>
-      <c r="AF6" s="119"/>
-      <c r="AG6" s="120"/>
-      <c r="AH6" s="120"/>
-      <c r="AI6" s="120"/>
-      <c r="AJ6" s="120"/>
-      <c r="AK6" s="121"/>
+      <c r="AF6" s="102"/>
+      <c r="AG6" s="103"/>
+      <c r="AH6" s="103"/>
+      <c r="AI6" s="103"/>
+      <c r="AJ6" s="103"/>
+      <c r="AK6" s="104"/>
       <c r="AL6" s="21"/>
-      <c r="AM6" s="119"/>
-      <c r="AN6" s="120"/>
-      <c r="AO6" s="120"/>
-      <c r="AP6" s="120"/>
-      <c r="AQ6" s="120"/>
-      <c r="AR6" s="121"/>
+      <c r="AM6" s="102"/>
+      <c r="AN6" s="103"/>
+      <c r="AO6" s="103"/>
+      <c r="AP6" s="103"/>
+      <c r="AQ6" s="103"/>
+      <c r="AR6" s="104"/>
       <c r="AS6" s="22"/>
     </row>
-    <row r="7" spans="2:45">
+    <row r="7" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B7" s="20"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
@@ -5214,169 +5229,169 @@
       <c r="AR7" s="30"/>
       <c r="AS7" s="22"/>
     </row>
-    <row r="8" spans="2:45">
+    <row r="8" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
-      <c r="C8" s="105" t="s">
+      <c r="C8" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="107"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="116"/>
       <c r="I8" s="21"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="107"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="116"/>
       <c r="P8" s="21"/>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="106"/>
-      <c r="S8" s="106"/>
-      <c r="T8" s="106"/>
-      <c r="U8" s="106"/>
-      <c r="V8" s="107"/>
+      <c r="Q8" s="114"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="115"/>
+      <c r="U8" s="115"/>
+      <c r="V8" s="116"/>
       <c r="W8" s="22"/>
       <c r="AE8" s="20"/>
       <c r="AF8" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="AG8" s="114"/>
-      <c r="AH8" s="114"/>
-      <c r="AI8" s="114"/>
-      <c r="AJ8" s="114"/>
-      <c r="AK8" s="115"/>
+      <c r="AG8" s="97"/>
+      <c r="AH8" s="97"/>
+      <c r="AI8" s="97"/>
+      <c r="AJ8" s="97"/>
+      <c r="AK8" s="98"/>
       <c r="AL8" s="21"/>
       <c r="AM8" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="AN8" s="114"/>
-      <c r="AO8" s="114"/>
-      <c r="AP8" s="114"/>
-      <c r="AQ8" s="114"/>
-      <c r="AR8" s="115"/>
+      <c r="AN8" s="97"/>
+      <c r="AO8" s="97"/>
+      <c r="AP8" s="97"/>
+      <c r="AQ8" s="97"/>
+      <c r="AR8" s="98"/>
       <c r="AS8" s="22"/>
     </row>
-    <row r="9" spans="2:45">
+    <row r="9" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B9" s="20"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="110"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="119"/>
       <c r="I9" s="21"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="110"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="119"/>
       <c r="P9" s="21"/>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="109"/>
-      <c r="U9" s="109"/>
-      <c r="V9" s="110"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="118"/>
+      <c r="T9" s="118"/>
+      <c r="U9" s="118"/>
+      <c r="V9" s="119"/>
       <c r="W9" s="22"/>
       <c r="AE9" s="20"/>
-      <c r="AF9" s="116"/>
-      <c r="AG9" s="117"/>
-      <c r="AH9" s="117"/>
-      <c r="AI9" s="117"/>
-      <c r="AJ9" s="117"/>
-      <c r="AK9" s="118"/>
+      <c r="AF9" s="99"/>
+      <c r="AG9" s="100"/>
+      <c r="AH9" s="100"/>
+      <c r="AI9" s="100"/>
+      <c r="AJ9" s="100"/>
+      <c r="AK9" s="101"/>
       <c r="AL9" s="21"/>
-      <c r="AM9" s="116"/>
-      <c r="AN9" s="117"/>
-      <c r="AO9" s="117"/>
-      <c r="AP9" s="117"/>
-      <c r="AQ9" s="117"/>
-      <c r="AR9" s="118"/>
+      <c r="AM9" s="99"/>
+      <c r="AN9" s="100"/>
+      <c r="AO9" s="100"/>
+      <c r="AP9" s="100"/>
+      <c r="AQ9" s="100"/>
+      <c r="AR9" s="101"/>
       <c r="AS9" s="22"/>
     </row>
-    <row r="10" spans="2:45">
+    <row r="10" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B10" s="20"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="110"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="119"/>
       <c r="I10" s="21"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="110"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="119"/>
       <c r="P10" s="21"/>
-      <c r="Q10" s="108"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="109"/>
-      <c r="U10" s="109"/>
-      <c r="V10" s="110"/>
+      <c r="Q10" s="117"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="118"/>
+      <c r="U10" s="118"/>
+      <c r="V10" s="119"/>
       <c r="W10" s="22"/>
       <c r="AE10" s="20"/>
-      <c r="AF10" s="116"/>
-      <c r="AG10" s="117"/>
-      <c r="AH10" s="117"/>
-      <c r="AI10" s="117"/>
-      <c r="AJ10" s="117"/>
-      <c r="AK10" s="118"/>
+      <c r="AF10" s="99"/>
+      <c r="AG10" s="100"/>
+      <c r="AH10" s="100"/>
+      <c r="AI10" s="100"/>
+      <c r="AJ10" s="100"/>
+      <c r="AK10" s="101"/>
       <c r="AL10" s="21"/>
-      <c r="AM10" s="116"/>
-      <c r="AN10" s="117"/>
-      <c r="AO10" s="117"/>
-      <c r="AP10" s="117"/>
-      <c r="AQ10" s="117"/>
-      <c r="AR10" s="118"/>
+      <c r="AM10" s="99"/>
+      <c r="AN10" s="100"/>
+      <c r="AO10" s="100"/>
+      <c r="AP10" s="100"/>
+      <c r="AQ10" s="100"/>
+      <c r="AR10" s="101"/>
       <c r="AS10" s="22"/>
     </row>
-    <row r="11" spans="2:45">
+    <row r="11" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B11" s="20"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="113"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="122"/>
       <c r="I11" s="21"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="112"/>
-      <c r="L11" s="112"/>
-      <c r="M11" s="112"/>
-      <c r="N11" s="112"/>
-      <c r="O11" s="113"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="122"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="112"/>
-      <c r="S11" s="112"/>
-      <c r="T11" s="112"/>
-      <c r="U11" s="112"/>
-      <c r="V11" s="113"/>
+      <c r="Q11" s="120"/>
+      <c r="R11" s="121"/>
+      <c r="S11" s="121"/>
+      <c r="T11" s="121"/>
+      <c r="U11" s="121"/>
+      <c r="V11" s="122"/>
       <c r="W11" s="22"/>
       <c r="AE11" s="20"/>
-      <c r="AF11" s="119"/>
-      <c r="AG11" s="120"/>
-      <c r="AH11" s="120"/>
-      <c r="AI11" s="120"/>
-      <c r="AJ11" s="120"/>
-      <c r="AK11" s="121"/>
+      <c r="AF11" s="102"/>
+      <c r="AG11" s="103"/>
+      <c r="AH11" s="103"/>
+      <c r="AI11" s="103"/>
+      <c r="AJ11" s="103"/>
+      <c r="AK11" s="104"/>
       <c r="AL11" s="21"/>
-      <c r="AM11" s="119"/>
-      <c r="AN11" s="120"/>
-      <c r="AO11" s="120"/>
-      <c r="AP11" s="120"/>
-      <c r="AQ11" s="120"/>
-      <c r="AR11" s="121"/>
+      <c r="AM11" s="102"/>
+      <c r="AN11" s="103"/>
+      <c r="AO11" s="103"/>
+      <c r="AP11" s="103"/>
+      <c r="AQ11" s="103"/>
+      <c r="AR11" s="104"/>
       <c r="AS11" s="22"/>
     </row>
-    <row r="12" spans="2:45">
+    <row r="12" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B12" s="20"/>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
@@ -5424,7 +5439,7 @@
       <c r="AR12" s="30"/>
       <c r="AS12" s="22"/>
     </row>
-    <row r="13" spans="2:45">
+    <row r="13" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
         <v>9</v>
       </c>
@@ -5467,7 +5482,7 @@
       <c r="AR13" s="32"/>
       <c r="AS13" s="33"/>
     </row>
-    <row r="14" spans="2:45">
+    <row r="14" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B14" s="20"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -5506,167 +5521,167 @@
       <c r="AR14" s="21"/>
       <c r="AS14" s="22"/>
     </row>
-    <row r="15" spans="2:45">
+    <row r="15" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B15" s="20"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="107"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="116"/>
       <c r="I15" s="21"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="106"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="106"/>
-      <c r="N15" s="106"/>
-      <c r="O15" s="107"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="115"/>
+      <c r="N15" s="115"/>
+      <c r="O15" s="116"/>
       <c r="P15" s="21"/>
-      <c r="Q15" s="105"/>
-      <c r="R15" s="106"/>
-      <c r="S15" s="106"/>
-      <c r="T15" s="106"/>
-      <c r="U15" s="106"/>
-      <c r="V15" s="107"/>
+      <c r="Q15" s="114"/>
+      <c r="R15" s="115"/>
+      <c r="S15" s="115"/>
+      <c r="T15" s="115"/>
+      <c r="U15" s="115"/>
+      <c r="V15" s="116"/>
       <c r="W15" s="22"/>
       <c r="AE15" s="20"/>
       <c r="AF15" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="AG15" s="114"/>
-      <c r="AH15" s="114"/>
-      <c r="AI15" s="114"/>
-      <c r="AJ15" s="114"/>
-      <c r="AK15" s="115"/>
+      <c r="AG15" s="97"/>
+      <c r="AH15" s="97"/>
+      <c r="AI15" s="97"/>
+      <c r="AJ15" s="97"/>
+      <c r="AK15" s="98"/>
       <c r="AL15" s="21"/>
       <c r="AM15" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="AN15" s="114"/>
-      <c r="AO15" s="114"/>
-      <c r="AP15" s="114"/>
-      <c r="AQ15" s="114"/>
-      <c r="AR15" s="115"/>
+      <c r="AN15" s="97"/>
+      <c r="AO15" s="97"/>
+      <c r="AP15" s="97"/>
+      <c r="AQ15" s="97"/>
+      <c r="AR15" s="98"/>
       <c r="AS15" s="22"/>
     </row>
-    <row r="16" spans="2:45">
+    <row r="16" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B16" s="20"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="110"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="119"/>
       <c r="I16" s="21"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="110"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="118"/>
+      <c r="M16" s="118"/>
+      <c r="N16" s="118"/>
+      <c r="O16" s="119"/>
       <c r="P16" s="21"/>
-      <c r="Q16" s="108"/>
-      <c r="R16" s="109"/>
-      <c r="S16" s="109"/>
-      <c r="T16" s="109"/>
-      <c r="U16" s="109"/>
-      <c r="V16" s="110"/>
+      <c r="Q16" s="117"/>
+      <c r="R16" s="118"/>
+      <c r="S16" s="118"/>
+      <c r="T16" s="118"/>
+      <c r="U16" s="118"/>
+      <c r="V16" s="119"/>
       <c r="W16" s="22"/>
       <c r="AE16" s="20"/>
-      <c r="AF16" s="116"/>
-      <c r="AG16" s="117"/>
-      <c r="AH16" s="117"/>
-      <c r="AI16" s="117"/>
-      <c r="AJ16" s="117"/>
-      <c r="AK16" s="118"/>
+      <c r="AF16" s="99"/>
+      <c r="AG16" s="100"/>
+      <c r="AH16" s="100"/>
+      <c r="AI16" s="100"/>
+      <c r="AJ16" s="100"/>
+      <c r="AK16" s="101"/>
       <c r="AL16" s="21"/>
-      <c r="AM16" s="116"/>
-      <c r="AN16" s="117"/>
-      <c r="AO16" s="117"/>
-      <c r="AP16" s="117"/>
-      <c r="AQ16" s="117"/>
-      <c r="AR16" s="118"/>
+      <c r="AM16" s="99"/>
+      <c r="AN16" s="100"/>
+      <c r="AO16" s="100"/>
+      <c r="AP16" s="100"/>
+      <c r="AQ16" s="100"/>
+      <c r="AR16" s="101"/>
       <c r="AS16" s="22"/>
     </row>
-    <row r="17" spans="2:45">
+    <row r="17" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B17" s="20"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="110"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="119"/>
       <c r="I17" s="21"/>
-      <c r="J17" s="108"/>
-      <c r="K17" s="109"/>
-      <c r="L17" s="109"/>
-      <c r="M17" s="109"/>
-      <c r="N17" s="109"/>
-      <c r="O17" s="110"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="118"/>
+      <c r="N17" s="118"/>
+      <c r="O17" s="119"/>
       <c r="P17" s="21"/>
-      <c r="Q17" s="108"/>
-      <c r="R17" s="109"/>
-      <c r="S17" s="109"/>
-      <c r="T17" s="109"/>
-      <c r="U17" s="109"/>
-      <c r="V17" s="110"/>
+      <c r="Q17" s="117"/>
+      <c r="R17" s="118"/>
+      <c r="S17" s="118"/>
+      <c r="T17" s="118"/>
+      <c r="U17" s="118"/>
+      <c r="V17" s="119"/>
       <c r="W17" s="22"/>
       <c r="AE17" s="20"/>
-      <c r="AF17" s="116"/>
-      <c r="AG17" s="117"/>
-      <c r="AH17" s="117"/>
-      <c r="AI17" s="117"/>
-      <c r="AJ17" s="117"/>
-      <c r="AK17" s="118"/>
+      <c r="AF17" s="99"/>
+      <c r="AG17" s="100"/>
+      <c r="AH17" s="100"/>
+      <c r="AI17" s="100"/>
+      <c r="AJ17" s="100"/>
+      <c r="AK17" s="101"/>
       <c r="AL17" s="21"/>
-      <c r="AM17" s="116"/>
-      <c r="AN17" s="117"/>
-      <c r="AO17" s="117"/>
-      <c r="AP17" s="117"/>
-      <c r="AQ17" s="117"/>
-      <c r="AR17" s="118"/>
+      <c r="AM17" s="99"/>
+      <c r="AN17" s="100"/>
+      <c r="AO17" s="100"/>
+      <c r="AP17" s="100"/>
+      <c r="AQ17" s="100"/>
+      <c r="AR17" s="101"/>
       <c r="AS17" s="22"/>
     </row>
-    <row r="18" spans="2:45">
+    <row r="18" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B18" s="20"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="113"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="122"/>
       <c r="I18" s="21"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="112"/>
-      <c r="L18" s="112"/>
-      <c r="M18" s="112"/>
-      <c r="N18" s="112"/>
-      <c r="O18" s="113"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="121"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="121"/>
+      <c r="O18" s="122"/>
       <c r="P18" s="21"/>
-      <c r="Q18" s="111"/>
-      <c r="R18" s="112"/>
-      <c r="S18" s="112"/>
-      <c r="T18" s="112"/>
-      <c r="U18" s="112"/>
-      <c r="V18" s="113"/>
+      <c r="Q18" s="120"/>
+      <c r="R18" s="121"/>
+      <c r="S18" s="121"/>
+      <c r="T18" s="121"/>
+      <c r="U18" s="121"/>
+      <c r="V18" s="122"/>
       <c r="W18" s="22"/>
       <c r="AE18" s="20"/>
-      <c r="AF18" s="119"/>
-      <c r="AG18" s="120"/>
-      <c r="AH18" s="120"/>
-      <c r="AI18" s="120"/>
-      <c r="AJ18" s="120"/>
-      <c r="AK18" s="121"/>
+      <c r="AF18" s="102"/>
+      <c r="AG18" s="103"/>
+      <c r="AH18" s="103"/>
+      <c r="AI18" s="103"/>
+      <c r="AJ18" s="103"/>
+      <c r="AK18" s="104"/>
       <c r="AL18" s="21"/>
-      <c r="AM18" s="119"/>
-      <c r="AN18" s="120"/>
-      <c r="AO18" s="120"/>
-      <c r="AP18" s="120"/>
-      <c r="AQ18" s="120"/>
-      <c r="AR18" s="121"/>
+      <c r="AM18" s="102"/>
+      <c r="AN18" s="103"/>
+      <c r="AO18" s="103"/>
+      <c r="AP18" s="103"/>
+      <c r="AQ18" s="103"/>
+      <c r="AR18" s="104"/>
       <c r="AS18" s="22"/>
     </row>
-    <row r="19" spans="2:45">
+    <row r="19" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B19" s="20"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -5705,167 +5720,167 @@
       <c r="AR19" s="34"/>
       <c r="AS19" s="22"/>
     </row>
-    <row r="20" spans="2:45">
+    <row r="20" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B20" s="20"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="107"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="116"/>
       <c r="I20" s="21"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="106"/>
-      <c r="N20" s="106"/>
-      <c r="O20" s="107"/>
+      <c r="J20" s="114"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="115"/>
+      <c r="O20" s="116"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="105"/>
-      <c r="R20" s="106"/>
-      <c r="S20" s="106"/>
-      <c r="T20" s="106"/>
-      <c r="U20" s="106"/>
-      <c r="V20" s="107"/>
+      <c r="Q20" s="114"/>
+      <c r="R20" s="115"/>
+      <c r="S20" s="115"/>
+      <c r="T20" s="115"/>
+      <c r="U20" s="115"/>
+      <c r="V20" s="116"/>
       <c r="W20" s="22"/>
       <c r="AE20" s="20"/>
       <c r="AF20" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="AG20" s="114"/>
-      <c r="AH20" s="114"/>
-      <c r="AI20" s="114"/>
-      <c r="AJ20" s="114"/>
-      <c r="AK20" s="115"/>
+      <c r="AG20" s="97"/>
+      <c r="AH20" s="97"/>
+      <c r="AI20" s="97"/>
+      <c r="AJ20" s="97"/>
+      <c r="AK20" s="98"/>
       <c r="AL20" s="21"/>
-      <c r="AM20" s="122" t="s">
+      <c r="AM20" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="AN20" s="123"/>
-      <c r="AO20" s="123"/>
-      <c r="AP20" s="123"/>
-      <c r="AQ20" s="123"/>
-      <c r="AR20" s="124"/>
+      <c r="AN20" s="106"/>
+      <c r="AO20" s="106"/>
+      <c r="AP20" s="106"/>
+      <c r="AQ20" s="106"/>
+      <c r="AR20" s="107"/>
       <c r="AS20" s="22"/>
     </row>
-    <row r="21" spans="2:45">
+    <row r="21" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B21" s="20"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="110"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="119"/>
       <c r="I21" s="21"/>
-      <c r="J21" s="108"/>
-      <c r="K21" s="109"/>
-      <c r="L21" s="109"/>
-      <c r="M21" s="109"/>
-      <c r="N21" s="109"/>
-      <c r="O21" s="110"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="118"/>
+      <c r="M21" s="118"/>
+      <c r="N21" s="118"/>
+      <c r="O21" s="119"/>
       <c r="P21" s="21"/>
-      <c r="Q21" s="108"/>
-      <c r="R21" s="109"/>
-      <c r="S21" s="109"/>
-      <c r="T21" s="109"/>
-      <c r="U21" s="109"/>
-      <c r="V21" s="110"/>
+      <c r="Q21" s="117"/>
+      <c r="R21" s="118"/>
+      <c r="S21" s="118"/>
+      <c r="T21" s="118"/>
+      <c r="U21" s="118"/>
+      <c r="V21" s="119"/>
       <c r="W21" s="22"/>
       <c r="AE21" s="20"/>
-      <c r="AF21" s="116"/>
-      <c r="AG21" s="117"/>
-      <c r="AH21" s="117"/>
-      <c r="AI21" s="117"/>
-      <c r="AJ21" s="117"/>
-      <c r="AK21" s="118"/>
+      <c r="AF21" s="99"/>
+      <c r="AG21" s="100"/>
+      <c r="AH21" s="100"/>
+      <c r="AI21" s="100"/>
+      <c r="AJ21" s="100"/>
+      <c r="AK21" s="101"/>
       <c r="AL21" s="21"/>
-      <c r="AM21" s="125"/>
-      <c r="AN21" s="126"/>
-      <c r="AO21" s="126"/>
-      <c r="AP21" s="126"/>
-      <c r="AQ21" s="126"/>
-      <c r="AR21" s="127"/>
+      <c r="AM21" s="108"/>
+      <c r="AN21" s="109"/>
+      <c r="AO21" s="109"/>
+      <c r="AP21" s="109"/>
+      <c r="AQ21" s="109"/>
+      <c r="AR21" s="110"/>
       <c r="AS21" s="22"/>
     </row>
-    <row r="22" spans="2:45">
+    <row r="22" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B22" s="20"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="110"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="119"/>
       <c r="I22" s="21"/>
-      <c r="J22" s="108"/>
-      <c r="K22" s="109"/>
-      <c r="L22" s="109"/>
-      <c r="M22" s="109"/>
-      <c r="N22" s="109"/>
-      <c r="O22" s="110"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="118"/>
+      <c r="N22" s="118"/>
+      <c r="O22" s="119"/>
       <c r="P22" s="21"/>
-      <c r="Q22" s="108"/>
-      <c r="R22" s="109"/>
-      <c r="S22" s="109"/>
-      <c r="T22" s="109"/>
-      <c r="U22" s="109"/>
-      <c r="V22" s="110"/>
+      <c r="Q22" s="117"/>
+      <c r="R22" s="118"/>
+      <c r="S22" s="118"/>
+      <c r="T22" s="118"/>
+      <c r="U22" s="118"/>
+      <c r="V22" s="119"/>
       <c r="W22" s="22"/>
       <c r="AE22" s="20"/>
-      <c r="AF22" s="116"/>
-      <c r="AG22" s="117"/>
-      <c r="AH22" s="117"/>
-      <c r="AI22" s="117"/>
-      <c r="AJ22" s="117"/>
-      <c r="AK22" s="118"/>
+      <c r="AF22" s="99"/>
+      <c r="AG22" s="100"/>
+      <c r="AH22" s="100"/>
+      <c r="AI22" s="100"/>
+      <c r="AJ22" s="100"/>
+      <c r="AK22" s="101"/>
       <c r="AL22" s="21"/>
-      <c r="AM22" s="125"/>
-      <c r="AN22" s="126"/>
-      <c r="AO22" s="126"/>
-      <c r="AP22" s="126"/>
-      <c r="AQ22" s="126"/>
-      <c r="AR22" s="127"/>
+      <c r="AM22" s="108"/>
+      <c r="AN22" s="109"/>
+      <c r="AO22" s="109"/>
+      <c r="AP22" s="109"/>
+      <c r="AQ22" s="109"/>
+      <c r="AR22" s="110"/>
       <c r="AS22" s="22"/>
     </row>
-    <row r="23" spans="2:45">
+    <row r="23" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B23" s="20"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="113"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="122"/>
       <c r="I23" s="21"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="112"/>
-      <c r="L23" s="112"/>
-      <c r="M23" s="112"/>
-      <c r="N23" s="112"/>
-      <c r="O23" s="113"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="121"/>
+      <c r="L23" s="121"/>
+      <c r="M23" s="121"/>
+      <c r="N23" s="121"/>
+      <c r="O23" s="122"/>
       <c r="P23" s="21"/>
-      <c r="Q23" s="111"/>
-      <c r="R23" s="112"/>
-      <c r="S23" s="112"/>
-      <c r="T23" s="112"/>
-      <c r="U23" s="112"/>
-      <c r="V23" s="113"/>
+      <c r="Q23" s="120"/>
+      <c r="R23" s="121"/>
+      <c r="S23" s="121"/>
+      <c r="T23" s="121"/>
+      <c r="U23" s="121"/>
+      <c r="V23" s="122"/>
       <c r="W23" s="22"/>
       <c r="AE23" s="20"/>
-      <c r="AF23" s="119"/>
-      <c r="AG23" s="120"/>
-      <c r="AH23" s="120"/>
-      <c r="AI23" s="120"/>
-      <c r="AJ23" s="120"/>
-      <c r="AK23" s="121"/>
+      <c r="AF23" s="102"/>
+      <c r="AG23" s="103"/>
+      <c r="AH23" s="103"/>
+      <c r="AI23" s="103"/>
+      <c r="AJ23" s="103"/>
+      <c r="AK23" s="104"/>
       <c r="AL23" s="21"/>
-      <c r="AM23" s="128"/>
-      <c r="AN23" s="129"/>
-      <c r="AO23" s="129"/>
-      <c r="AP23" s="129"/>
-      <c r="AQ23" s="129"/>
-      <c r="AR23" s="130"/>
+      <c r="AM23" s="111"/>
+      <c r="AN23" s="112"/>
+      <c r="AO23" s="112"/>
+      <c r="AP23" s="112"/>
+      <c r="AQ23" s="112"/>
+      <c r="AR23" s="113"/>
       <c r="AS23" s="22"/>
     </row>
-    <row r="24" spans="2:45">
+    <row r="24" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B24" s="27"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
@@ -5904,7 +5919,7 @@
       <c r="AR24" s="28"/>
       <c r="AS24" s="29"/>
     </row>
-    <row r="25" spans="2:45">
+    <row r="25" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -5926,7 +5941,7 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="2:45">
+    <row r="26" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -5948,7 +5963,7 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="2:45">
+    <row r="27" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -5972,6 +5987,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C3:H6"/>
+    <mergeCell ref="J3:O6"/>
+    <mergeCell ref="Q3:V6"/>
+    <mergeCell ref="C8:H11"/>
+    <mergeCell ref="J8:O11"/>
+    <mergeCell ref="Q8:V11"/>
+    <mergeCell ref="C15:H18"/>
+    <mergeCell ref="J15:O18"/>
+    <mergeCell ref="Q15:V18"/>
+    <mergeCell ref="C20:H23"/>
+    <mergeCell ref="J20:O23"/>
+    <mergeCell ref="Q20:V23"/>
     <mergeCell ref="AF20:AK23"/>
     <mergeCell ref="AM20:AR23"/>
     <mergeCell ref="AF3:AK6"/>
@@ -5980,18 +6007,6 @@
     <mergeCell ref="AM8:AR11"/>
     <mergeCell ref="AF15:AK18"/>
     <mergeCell ref="AM15:AR18"/>
-    <mergeCell ref="C15:H18"/>
-    <mergeCell ref="J15:O18"/>
-    <mergeCell ref="Q15:V18"/>
-    <mergeCell ref="C20:H23"/>
-    <mergeCell ref="J20:O23"/>
-    <mergeCell ref="Q20:V23"/>
-    <mergeCell ref="C3:H6"/>
-    <mergeCell ref="J3:O6"/>
-    <mergeCell ref="Q3:V6"/>
-    <mergeCell ref="C8:H11"/>
-    <mergeCell ref="J8:O11"/>
-    <mergeCell ref="Q8:V11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5999,17 +6014,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CD88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:XFD61"/>
+      <selection activeCell="BR68" sqref="BR68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:80" ht="14.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:80" ht="16.5" customHeight="1" thickTop="1">
+    <row r="1" spans="2:80" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:80" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="36"/>
       <c r="C2" s="37"/>
       <c r="D2" s="37"/>
@@ -6062,10 +6077,10 @@
       <c r="AW2" s="42"/>
       <c r="AX2" s="42"/>
       <c r="AY2" s="42"/>
-      <c r="AZ2" s="138" t="s">
+      <c r="AZ2" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="BA2" s="139"/>
+      <c r="BA2" s="133"/>
       <c r="BC2" s="89" t="s">
         <v>54</v>
       </c>
@@ -6097,7 +6112,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="2:80" ht="15.75" thickBot="1">
+    <row r="3" spans="2:80" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="38"/>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
@@ -6148,8 +6163,8 @@
       <c r="AW3" s="39"/>
       <c r="AX3" s="39"/>
       <c r="AY3" s="39"/>
-      <c r="AZ3" s="144"/>
-      <c r="BA3" s="145"/>
+      <c r="AZ3" s="134"/>
+      <c r="BA3" s="135"/>
       <c r="BC3" s="66"/>
       <c r="BD3" s="67"/>
       <c r="BE3" s="67"/>
@@ -6177,58 +6192,58 @@
       <c r="CA3" s="67"/>
       <c r="CB3" s="68"/>
     </row>
-    <row r="4" spans="2:80" ht="15.75" thickTop="1">
-      <c r="B4" s="146"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
+    <row r="4" spans="2:80" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="136"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
       <c r="F4" s="44"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="143"/>
-      <c r="L4" s="147"/>
-      <c r="M4" s="143"/>
-      <c r="N4" s="143"/>
-      <c r="O4" s="143"/>
-      <c r="P4" s="143"/>
-      <c r="Q4" s="143"/>
-      <c r="R4" s="143"/>
-      <c r="S4" s="143"/>
-      <c r="T4" s="143"/>
-      <c r="U4" s="143"/>
-      <c r="V4" s="143"/>
-      <c r="W4" s="143"/>
-      <c r="X4" s="143"/>
-      <c r="Y4" s="143"/>
-      <c r="Z4" s="143"/>
-      <c r="AA4" s="143"/>
-      <c r="AB4" s="143"/>
-      <c r="AC4" s="143"/>
-      <c r="AD4" s="143"/>
-      <c r="AE4" s="143"/>
-      <c r="AF4" s="143"/>
-      <c r="AG4" s="143"/>
-      <c r="AH4" s="143"/>
-      <c r="AI4" s="143"/>
-      <c r="AJ4" s="143"/>
-      <c r="AK4" s="143"/>
-      <c r="AL4" s="143"/>
-      <c r="AM4" s="143"/>
-      <c r="AN4" s="143"/>
-      <c r="AO4" s="143"/>
-      <c r="AP4" s="143"/>
-      <c r="AQ4" s="143"/>
-      <c r="AR4" s="143"/>
-      <c r="AS4" s="143"/>
-      <c r="AT4" s="143"/>
-      <c r="AU4" s="143"/>
-      <c r="AV4" s="143"/>
-      <c r="AW4" s="143"/>
-      <c r="AX4" s="143"/>
-      <c r="AY4" s="143"/>
-      <c r="AZ4" s="143"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="131"/>
+      <c r="N4" s="131"/>
+      <c r="O4" s="131"/>
+      <c r="P4" s="131"/>
+      <c r="Q4" s="131"/>
+      <c r="R4" s="131"/>
+      <c r="S4" s="131"/>
+      <c r="T4" s="131"/>
+      <c r="U4" s="131"/>
+      <c r="V4" s="131"/>
+      <c r="W4" s="131"/>
+      <c r="X4" s="131"/>
+      <c r="Y4" s="131"/>
+      <c r="Z4" s="131"/>
+      <c r="AA4" s="131"/>
+      <c r="AB4" s="131"/>
+      <c r="AC4" s="131"/>
+      <c r="AD4" s="131"/>
+      <c r="AE4" s="131"/>
+      <c r="AF4" s="131"/>
+      <c r="AG4" s="131"/>
+      <c r="AH4" s="131"/>
+      <c r="AI4" s="131"/>
+      <c r="AJ4" s="131"/>
+      <c r="AK4" s="131"/>
+      <c r="AL4" s="131"/>
+      <c r="AM4" s="131"/>
+      <c r="AN4" s="131"/>
+      <c r="AO4" s="131"/>
+      <c r="AP4" s="131"/>
+      <c r="AQ4" s="131"/>
+      <c r="AR4" s="131"/>
+      <c r="AS4" s="131"/>
+      <c r="AT4" s="131"/>
+      <c r="AU4" s="131"/>
+      <c r="AV4" s="131"/>
+      <c r="AW4" s="131"/>
+      <c r="AX4" s="131"/>
+      <c r="AY4" s="131"/>
+      <c r="AZ4" s="131"/>
       <c r="BA4" s="45"/>
       <c r="BC4" s="66"/>
       <c r="BD4" s="67"/>
@@ -6257,7 +6272,7 @@
       <c r="CA4" s="67"/>
       <c r="CB4" s="68"/>
     </row>
-    <row r="5" spans="2:80">
+    <row r="5" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B5" s="43"/>
       <c r="C5" s="44"/>
       <c r="D5" s="44"/>
@@ -6337,7 +6352,7 @@
       <c r="CA5" s="67"/>
       <c r="CB5" s="68"/>
     </row>
-    <row r="6" spans="2:80">
+    <row r="6" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B6" s="46"/>
       <c r="C6" s="47"/>
       <c r="D6" s="51"/>
@@ -6417,7 +6432,7 @@
       <c r="CA6" s="67"/>
       <c r="CB6" s="68"/>
     </row>
-    <row r="7" spans="2:80">
+    <row r="7" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B7" s="48"/>
       <c r="C7" s="49"/>
       <c r="D7" s="53"/>
@@ -6499,7 +6514,7 @@
       <c r="CA7" s="67"/>
       <c r="CB7" s="68"/>
     </row>
-    <row r="8" spans="2:80" ht="16.5" customHeight="1">
+    <row r="8" spans="2:80" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="48"/>
       <c r="C8" s="49"/>
       <c r="D8" s="49"/>
@@ -6581,7 +6596,7 @@
       <c r="CA8" s="67"/>
       <c r="CB8" s="68"/>
     </row>
-    <row r="9" spans="2:80">
+    <row r="9" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B9" s="48"/>
       <c r="C9" s="49"/>
       <c r="D9" s="49"/>
@@ -6673,7 +6688,7 @@
       <c r="CA9" s="67"/>
       <c r="CB9" s="68"/>
     </row>
-    <row r="10" spans="2:80">
+    <row r="10" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B10" s="48"/>
       <c r="C10" s="49"/>
       <c r="D10" s="49"/>
@@ -6757,7 +6772,7 @@
       <c r="CA10" s="67"/>
       <c r="CB10" s="68"/>
     </row>
-    <row r="11" spans="2:80" ht="18.75">
+    <row r="11" spans="2:80" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B11" s="48"/>
       <c r="C11" s="49"/>
       <c r="D11" s="49"/>
@@ -6843,7 +6858,7 @@
       <c r="CA11" s="67"/>
       <c r="CB11" s="68"/>
     </row>
-    <row r="12" spans="2:80">
+    <row r="12" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B12" s="48"/>
       <c r="C12" s="49"/>
       <c r="D12" s="49"/>
@@ -6925,7 +6940,7 @@
       <c r="CA12" s="67"/>
       <c r="CB12" s="68"/>
     </row>
-    <row r="13" spans="2:80">
+    <row r="13" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B13" s="48"/>
       <c r="C13" s="49"/>
       <c r="D13" s="49"/>
@@ -7011,7 +7026,7 @@
       <c r="CA13" s="67"/>
       <c r="CB13" s="68"/>
     </row>
-    <row r="14" spans="2:80">
+    <row r="14" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B14" s="48"/>
       <c r="C14" s="49"/>
       <c r="D14" s="49"/>
@@ -7095,7 +7110,7 @@
       <c r="CA14" s="67"/>
       <c r="CB14" s="68"/>
     </row>
-    <row r="15" spans="2:80">
+    <row r="15" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B15" s="48"/>
       <c r="C15" s="49"/>
       <c r="D15" s="86" t="s">
@@ -7181,7 +7196,7 @@
       <c r="CA15" s="67"/>
       <c r="CB15" s="68"/>
     </row>
-    <row r="16" spans="2:80">
+    <row r="16" spans="2:80" x14ac:dyDescent="0.25">
       <c r="B16" s="48"/>
       <c r="C16" s="49"/>
       <c r="D16" s="49"/>
@@ -7263,7 +7278,7 @@
       <c r="CA16" s="67"/>
       <c r="CB16" s="68"/>
     </row>
-    <row r="17" spans="2:82">
+    <row r="17" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B17" s="48"/>
       <c r="C17" s="49"/>
       <c r="D17" s="49"/>
@@ -7347,7 +7362,7 @@
       <c r="CA17" s="67"/>
       <c r="CB17" s="68"/>
     </row>
-    <row r="18" spans="2:82">
+    <row r="18" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -7427,7 +7442,7 @@
       <c r="CA18" s="67"/>
       <c r="CB18" s="68"/>
     </row>
-    <row r="19" spans="2:82">
+    <row r="19" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B19" s="48"/>
       <c r="C19" s="49"/>
       <c r="D19" s="49"/>
@@ -7507,7 +7522,7 @@
       <c r="CA19" s="71"/>
       <c r="CB19" s="72"/>
     </row>
-    <row r="20" spans="2:82">
+    <row r="20" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B20" s="48"/>
       <c r="C20" s="49"/>
       <c r="D20" s="49"/>
@@ -7563,7 +7578,7 @@
       <c r="AZ20" s="40"/>
       <c r="BA20" s="41"/>
     </row>
-    <row r="21" spans="2:82" ht="15.75">
+    <row r="21" spans="2:82" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="48"/>
       <c r="C21" s="49"/>
       <c r="D21" s="49"/>
@@ -7645,7 +7660,7 @@
       <c r="CC21" s="91"/>
       <c r="CD21" s="91"/>
     </row>
-    <row r="22" spans="2:82">
+    <row r="22" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B22" s="48"/>
       <c r="C22" s="49"/>
       <c r="D22" s="49"/>
@@ -7727,7 +7742,7 @@
       <c r="CC22" s="91"/>
       <c r="CD22" s="91"/>
     </row>
-    <row r="23" spans="2:82">
+    <row r="23" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B23" s="48"/>
       <c r="C23" s="49"/>
       <c r="D23" s="49"/>
@@ -7813,7 +7828,7 @@
       <c r="CC23" s="91"/>
       <c r="CD23" s="91"/>
     </row>
-    <row r="24" spans="2:82">
+    <row r="24" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B24" s="48"/>
       <c r="C24" s="49"/>
       <c r="D24" s="49"/>
@@ -7899,7 +7914,7 @@
       <c r="CC24" s="91"/>
       <c r="CD24" s="91"/>
     </row>
-    <row r="25" spans="2:82">
+    <row r="25" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B25" s="48"/>
       <c r="C25" s="49"/>
       <c r="D25" s="49"/>
@@ -7989,7 +8004,7 @@
       <c r="CC25" s="91"/>
       <c r="CD25" s="91"/>
     </row>
-    <row r="26" spans="2:82">
+    <row r="26" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B26" s="73" t="s">
         <v>47</v>
       </c>
@@ -8079,7 +8094,7 @@
       <c r="CC26" s="91"/>
       <c r="CD26" s="91"/>
     </row>
-    <row r="27" spans="2:82">
+    <row r="27" spans="2:82" x14ac:dyDescent="0.25">
       <c r="AC27" s="66"/>
       <c r="AD27" s="67"/>
       <c r="AE27" s="67"/>
@@ -8135,7 +8150,7 @@
       <c r="CC27" s="91"/>
       <c r="CD27" s="91"/>
     </row>
-    <row r="28" spans="2:82" ht="15.75">
+    <row r="28" spans="2:82" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC28" s="70"/>
       <c r="AD28" s="71"/>
       <c r="AE28" s="71"/>
@@ -8189,7 +8204,7 @@
       <c r="CC28" s="91"/>
       <c r="CD28" s="91"/>
     </row>
-    <row r="29" spans="2:82">
+    <row r="29" spans="2:82" x14ac:dyDescent="0.25">
       <c r="BC29" s="91"/>
       <c r="BD29" s="91"/>
       <c r="BE29" s="91"/>
@@ -8219,7 +8234,7 @@
       <c r="CC29" s="91"/>
       <c r="CD29" s="91"/>
     </row>
-    <row r="30" spans="2:82" ht="15.75" thickBot="1">
+    <row r="30" spans="2:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BC30" s="91"/>
       <c r="BD30" s="93" t="s">
         <v>68</v>
@@ -8251,7 +8266,7 @@
       <c r="CC30" s="91"/>
       <c r="CD30" s="91"/>
     </row>
-    <row r="31" spans="2:82" ht="15.75" thickTop="1">
+    <row r="31" spans="2:82" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B31" s="36"/>
       <c r="C31" s="37"/>
       <c r="D31" s="37"/>
@@ -8304,10 +8319,10 @@
       <c r="AW31" s="42"/>
       <c r="AX31" s="42"/>
       <c r="AY31" s="42"/>
-      <c r="AZ31" s="138" t="s">
+      <c r="AZ31" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="BA31" s="139"/>
+      <c r="BA31" s="133"/>
       <c r="BC31" s="91"/>
       <c r="BD31" s="93"/>
       <c r="BE31" s="93" t="s">
@@ -8339,7 +8354,7 @@
       <c r="CC31" s="91"/>
       <c r="CD31" s="91"/>
     </row>
-    <row r="32" spans="2:82">
+    <row r="32" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B32" s="38"/>
       <c r="C32" s="39"/>
       <c r="D32" s="39"/>
@@ -8390,8 +8405,8 @@
       <c r="AW32" s="39"/>
       <c r="AX32" s="39"/>
       <c r="AY32" s="39"/>
-      <c r="AZ32" s="140"/>
-      <c r="BA32" s="141"/>
+      <c r="AZ32" s="138"/>
+      <c r="BA32" s="139"/>
       <c r="BC32" s="91"/>
       <c r="BD32" s="93"/>
       <c r="BE32" s="93" t="s">
@@ -8423,61 +8438,61 @@
       <c r="CC32" s="91"/>
       <c r="CD32" s="91"/>
     </row>
-    <row r="33" spans="2:82">
-      <c r="B33" s="132" t="s">
+    <row r="33" spans="2:82" x14ac:dyDescent="0.25">
+      <c r="B33" s="142" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="133"/>
-      <c r="D33" s="133"/>
-      <c r="E33" s="133"/>
-      <c r="F33" s="133"/>
-      <c r="G33" s="133"/>
-      <c r="H33" s="133"/>
-      <c r="I33" s="133"/>
-      <c r="J33" s="133"/>
-      <c r="K33" s="133"/>
-      <c r="L33" s="133"/>
-      <c r="M33" s="133"/>
-      <c r="N33" s="133"/>
-      <c r="O33" s="133"/>
-      <c r="P33" s="133"/>
-      <c r="Q33" s="133"/>
-      <c r="R33" s="133"/>
-      <c r="S33" s="133"/>
-      <c r="T33" s="133"/>
-      <c r="U33" s="133"/>
-      <c r="V33" s="133"/>
-      <c r="W33" s="133"/>
-      <c r="X33" s="133"/>
-      <c r="Y33" s="133"/>
-      <c r="Z33" s="133"/>
-      <c r="AA33" s="133"/>
-      <c r="AB33" s="133"/>
-      <c r="AC33" s="133"/>
-      <c r="AD33" s="133"/>
-      <c r="AE33" s="133"/>
-      <c r="AF33" s="133"/>
-      <c r="AG33" s="133"/>
-      <c r="AH33" s="133"/>
-      <c r="AI33" s="133"/>
-      <c r="AJ33" s="133"/>
-      <c r="AK33" s="133"/>
-      <c r="AL33" s="133"/>
-      <c r="AM33" s="133"/>
-      <c r="AN33" s="133"/>
-      <c r="AO33" s="133"/>
-      <c r="AP33" s="133"/>
-      <c r="AQ33" s="133"/>
-      <c r="AR33" s="133"/>
-      <c r="AS33" s="133"/>
-      <c r="AT33" s="133"/>
-      <c r="AU33" s="133"/>
-      <c r="AV33" s="133"/>
-      <c r="AW33" s="133"/>
-      <c r="AX33" s="133"/>
-      <c r="AY33" s="133"/>
-      <c r="AZ33" s="133"/>
-      <c r="BA33" s="134"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="143"/>
+      <c r="E33" s="143"/>
+      <c r="F33" s="143"/>
+      <c r="G33" s="143"/>
+      <c r="H33" s="143"/>
+      <c r="I33" s="143"/>
+      <c r="J33" s="143"/>
+      <c r="K33" s="143"/>
+      <c r="L33" s="143"/>
+      <c r="M33" s="143"/>
+      <c r="N33" s="143"/>
+      <c r="O33" s="143"/>
+      <c r="P33" s="143"/>
+      <c r="Q33" s="143"/>
+      <c r="R33" s="143"/>
+      <c r="S33" s="143"/>
+      <c r="T33" s="143"/>
+      <c r="U33" s="143"/>
+      <c r="V33" s="143"/>
+      <c r="W33" s="143"/>
+      <c r="X33" s="143"/>
+      <c r="Y33" s="143"/>
+      <c r="Z33" s="143"/>
+      <c r="AA33" s="143"/>
+      <c r="AB33" s="143"/>
+      <c r="AC33" s="143"/>
+      <c r="AD33" s="143"/>
+      <c r="AE33" s="143"/>
+      <c r="AF33" s="143"/>
+      <c r="AG33" s="143"/>
+      <c r="AH33" s="143"/>
+      <c r="AI33" s="143"/>
+      <c r="AJ33" s="143"/>
+      <c r="AK33" s="143"/>
+      <c r="AL33" s="143"/>
+      <c r="AM33" s="143"/>
+      <c r="AN33" s="143"/>
+      <c r="AO33" s="143"/>
+      <c r="AP33" s="143"/>
+      <c r="AQ33" s="143"/>
+      <c r="AR33" s="143"/>
+      <c r="AS33" s="143"/>
+      <c r="AT33" s="143"/>
+      <c r="AU33" s="143"/>
+      <c r="AV33" s="143"/>
+      <c r="AW33" s="143"/>
+      <c r="AX33" s="143"/>
+      <c r="AY33" s="143"/>
+      <c r="AZ33" s="143"/>
+      <c r="BA33" s="144"/>
       <c r="BC33" s="91"/>
       <c r="BD33" s="93"/>
       <c r="BE33" s="93" t="s">
@@ -8509,59 +8524,59 @@
       <c r="CC33" s="91"/>
       <c r="CD33" s="91"/>
     </row>
-    <row r="34" spans="2:82">
-      <c r="B34" s="135"/>
-      <c r="C34" s="136"/>
-      <c r="D34" s="136"/>
-      <c r="E34" s="136"/>
-      <c r="F34" s="136"/>
-      <c r="G34" s="136"/>
-      <c r="H34" s="136"/>
-      <c r="I34" s="136"/>
-      <c r="J34" s="136"/>
-      <c r="K34" s="136"/>
-      <c r="L34" s="136"/>
-      <c r="M34" s="136"/>
-      <c r="N34" s="136"/>
-      <c r="O34" s="136"/>
-      <c r="P34" s="136"/>
-      <c r="Q34" s="136"/>
-      <c r="R34" s="136"/>
-      <c r="S34" s="136"/>
-      <c r="T34" s="136"/>
-      <c r="U34" s="136"/>
-      <c r="V34" s="136"/>
-      <c r="W34" s="136"/>
-      <c r="X34" s="136"/>
-      <c r="Y34" s="136"/>
-      <c r="Z34" s="136"/>
-      <c r="AA34" s="136"/>
-      <c r="AB34" s="136"/>
-      <c r="AC34" s="136"/>
-      <c r="AD34" s="136"/>
-      <c r="AE34" s="136"/>
-      <c r="AF34" s="136"/>
-      <c r="AG34" s="136"/>
-      <c r="AH34" s="136"/>
-      <c r="AI34" s="136"/>
-      <c r="AJ34" s="136"/>
-      <c r="AK34" s="136"/>
-      <c r="AL34" s="136"/>
-      <c r="AM34" s="136"/>
-      <c r="AN34" s="136"/>
-      <c r="AO34" s="136"/>
-      <c r="AP34" s="136"/>
-      <c r="AQ34" s="136"/>
-      <c r="AR34" s="136"/>
-      <c r="AS34" s="136"/>
-      <c r="AT34" s="136"/>
-      <c r="AU34" s="136"/>
-      <c r="AV34" s="136"/>
-      <c r="AW34" s="136"/>
-      <c r="AX34" s="136"/>
-      <c r="AY34" s="136"/>
-      <c r="AZ34" s="136"/>
-      <c r="BA34" s="137"/>
+    <row r="34" spans="2:82" x14ac:dyDescent="0.25">
+      <c r="B34" s="145"/>
+      <c r="C34" s="146"/>
+      <c r="D34" s="146"/>
+      <c r="E34" s="146"/>
+      <c r="F34" s="146"/>
+      <c r="G34" s="146"/>
+      <c r="H34" s="146"/>
+      <c r="I34" s="146"/>
+      <c r="J34" s="146"/>
+      <c r="K34" s="146"/>
+      <c r="L34" s="146"/>
+      <c r="M34" s="146"/>
+      <c r="N34" s="146"/>
+      <c r="O34" s="146"/>
+      <c r="P34" s="146"/>
+      <c r="Q34" s="146"/>
+      <c r="R34" s="146"/>
+      <c r="S34" s="146"/>
+      <c r="T34" s="146"/>
+      <c r="U34" s="146"/>
+      <c r="V34" s="146"/>
+      <c r="W34" s="146"/>
+      <c r="X34" s="146"/>
+      <c r="Y34" s="146"/>
+      <c r="Z34" s="146"/>
+      <c r="AA34" s="146"/>
+      <c r="AB34" s="146"/>
+      <c r="AC34" s="146"/>
+      <c r="AD34" s="146"/>
+      <c r="AE34" s="146"/>
+      <c r="AF34" s="146"/>
+      <c r="AG34" s="146"/>
+      <c r="AH34" s="146"/>
+      <c r="AI34" s="146"/>
+      <c r="AJ34" s="146"/>
+      <c r="AK34" s="146"/>
+      <c r="AL34" s="146"/>
+      <c r="AM34" s="146"/>
+      <c r="AN34" s="146"/>
+      <c r="AO34" s="146"/>
+      <c r="AP34" s="146"/>
+      <c r="AQ34" s="146"/>
+      <c r="AR34" s="146"/>
+      <c r="AS34" s="146"/>
+      <c r="AT34" s="146"/>
+      <c r="AU34" s="146"/>
+      <c r="AV34" s="146"/>
+      <c r="AW34" s="146"/>
+      <c r="AX34" s="146"/>
+      <c r="AY34" s="146"/>
+      <c r="AZ34" s="146"/>
+      <c r="BA34" s="147"/>
       <c r="BC34" s="91"/>
       <c r="BD34" s="91"/>
       <c r="BE34" s="91"/>
@@ -8591,58 +8606,58 @@
       <c r="CC34" s="91"/>
       <c r="CD34" s="91"/>
     </row>
-    <row r="35" spans="2:82">
-      <c r="B35" s="142"/>
-      <c r="C35" s="131"/>
-      <c r="D35" s="131"/>
-      <c r="E35" s="131"/>
+    <row r="35" spans="2:82" x14ac:dyDescent="0.25">
+      <c r="B35" s="140"/>
+      <c r="C35" s="141"/>
+      <c r="D35" s="141"/>
+      <c r="E35" s="141"/>
       <c r="F35" s="75"/>
-      <c r="G35" s="131"/>
-      <c r="H35" s="131"/>
-      <c r="I35" s="131"/>
-      <c r="J35" s="131"/>
-      <c r="K35" s="131"/>
-      <c r="L35" s="131"/>
-      <c r="M35" s="131"/>
-      <c r="N35" s="131"/>
-      <c r="O35" s="131"/>
-      <c r="P35" s="131"/>
-      <c r="Q35" s="131"/>
-      <c r="R35" s="131"/>
-      <c r="S35" s="131"/>
-      <c r="T35" s="131"/>
-      <c r="U35" s="131"/>
-      <c r="V35" s="131"/>
-      <c r="W35" s="131"/>
-      <c r="X35" s="131"/>
-      <c r="Y35" s="131"/>
-      <c r="Z35" s="131"/>
-      <c r="AA35" s="131"/>
-      <c r="AB35" s="131"/>
-      <c r="AC35" s="131"/>
-      <c r="AD35" s="131"/>
-      <c r="AE35" s="131"/>
-      <c r="AF35" s="131"/>
-      <c r="AG35" s="131"/>
-      <c r="AH35" s="131"/>
-      <c r="AI35" s="131"/>
-      <c r="AJ35" s="131"/>
-      <c r="AK35" s="131"/>
-      <c r="AL35" s="131"/>
-      <c r="AM35" s="131"/>
-      <c r="AN35" s="131"/>
-      <c r="AO35" s="131"/>
-      <c r="AP35" s="131"/>
-      <c r="AQ35" s="131"/>
-      <c r="AR35" s="131"/>
-      <c r="AS35" s="131"/>
-      <c r="AT35" s="131"/>
-      <c r="AU35" s="131"/>
-      <c r="AV35" s="131"/>
-      <c r="AW35" s="131"/>
-      <c r="AX35" s="131"/>
-      <c r="AY35" s="131"/>
-      <c r="AZ35" s="131"/>
+      <c r="G35" s="141"/>
+      <c r="H35" s="141"/>
+      <c r="I35" s="141"/>
+      <c r="J35" s="141"/>
+      <c r="K35" s="141"/>
+      <c r="L35" s="141"/>
+      <c r="M35" s="141"/>
+      <c r="N35" s="141"/>
+      <c r="O35" s="141"/>
+      <c r="P35" s="141"/>
+      <c r="Q35" s="141"/>
+      <c r="R35" s="141"/>
+      <c r="S35" s="141"/>
+      <c r="T35" s="141"/>
+      <c r="U35" s="141"/>
+      <c r="V35" s="141"/>
+      <c r="W35" s="141"/>
+      <c r="X35" s="141"/>
+      <c r="Y35" s="141"/>
+      <c r="Z35" s="141"/>
+      <c r="AA35" s="141"/>
+      <c r="AB35" s="141"/>
+      <c r="AC35" s="141"/>
+      <c r="AD35" s="141"/>
+      <c r="AE35" s="141"/>
+      <c r="AF35" s="141"/>
+      <c r="AG35" s="141"/>
+      <c r="AH35" s="141"/>
+      <c r="AI35" s="141"/>
+      <c r="AJ35" s="141"/>
+      <c r="AK35" s="141"/>
+      <c r="AL35" s="141"/>
+      <c r="AM35" s="141"/>
+      <c r="AN35" s="141"/>
+      <c r="AO35" s="141"/>
+      <c r="AP35" s="141"/>
+      <c r="AQ35" s="141"/>
+      <c r="AR35" s="141"/>
+      <c r="AS35" s="141"/>
+      <c r="AT35" s="141"/>
+      <c r="AU35" s="141"/>
+      <c r="AV35" s="141"/>
+      <c r="AW35" s="141"/>
+      <c r="AX35" s="141"/>
+      <c r="AY35" s="141"/>
+      <c r="AZ35" s="141"/>
       <c r="BA35" s="76"/>
       <c r="BC35" s="91"/>
       <c r="BD35" s="93" t="s">
@@ -8675,7 +8690,7 @@
       <c r="CC35" s="91"/>
       <c r="CD35" s="91"/>
     </row>
-    <row r="36" spans="2:82">
+    <row r="36" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B36" s="77"/>
       <c r="C36" s="59"/>
       <c r="D36" s="59"/>
@@ -8757,7 +8772,7 @@
       <c r="CC36" s="91"/>
       <c r="CD36" s="91"/>
     </row>
-    <row r="37" spans="2:82">
+    <row r="37" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B37" s="79"/>
       <c r="C37" s="78"/>
       <c r="D37" s="78"/>
@@ -8839,7 +8854,7 @@
       <c r="CC37" s="91"/>
       <c r="CD37" s="91"/>
     </row>
-    <row r="38" spans="2:82">
+    <row r="38" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B38" s="79"/>
       <c r="C38" s="78"/>
       <c r="D38" s="78"/>
@@ -8921,7 +8936,7 @@
       <c r="CC38" s="91"/>
       <c r="CD38" s="91"/>
     </row>
-    <row r="39" spans="2:82">
+    <row r="39" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B39" s="79"/>
       <c r="C39" s="78"/>
       <c r="D39" s="78"/>
@@ -9003,7 +9018,7 @@
       <c r="CC39" s="91"/>
       <c r="CD39" s="91"/>
     </row>
-    <row r="40" spans="2:82">
+    <row r="40" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B40" s="79"/>
       <c r="C40" s="78"/>
       <c r="D40" s="78"/>
@@ -9085,7 +9100,7 @@
       <c r="CC40" s="91"/>
       <c r="CD40" s="91"/>
     </row>
-    <row r="41" spans="2:82">
+    <row r="41" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B41" s="79"/>
       <c r="C41" s="78"/>
       <c r="D41" s="78"/>
@@ -9167,7 +9182,7 @@
       <c r="CC41" s="91"/>
       <c r="CD41" s="91"/>
     </row>
-    <row r="42" spans="2:82">
+    <row r="42" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B42" s="79"/>
       <c r="C42" s="78"/>
       <c r="D42" s="78"/>
@@ -9221,7 +9236,7 @@
       <c r="AZ42" s="78"/>
       <c r="BA42" s="81"/>
     </row>
-    <row r="43" spans="2:82">
+    <row r="43" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B43" s="79"/>
       <c r="C43" s="78"/>
       <c r="D43" s="78"/>
@@ -9275,7 +9290,7 @@
       <c r="AZ43" s="78"/>
       <c r="BA43" s="81"/>
     </row>
-    <row r="44" spans="2:82">
+    <row r="44" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B44" s="79"/>
       <c r="C44" s="78"/>
       <c r="D44" s="78"/>
@@ -9329,7 +9344,7 @@
       <c r="AZ44" s="78"/>
       <c r="BA44" s="81"/>
     </row>
-    <row r="45" spans="2:82">
+    <row r="45" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B45" s="79"/>
       <c r="C45" s="78"/>
       <c r="D45" s="78"/>
@@ -9383,7 +9398,7 @@
       <c r="AZ45" s="78"/>
       <c r="BA45" s="81"/>
     </row>
-    <row r="46" spans="2:82">
+    <row r="46" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B46" s="79"/>
       <c r="C46" s="78"/>
       <c r="D46" s="78"/>
@@ -9437,7 +9452,7 @@
       <c r="AZ46" s="78"/>
       <c r="BA46" s="81"/>
     </row>
-    <row r="47" spans="2:82">
+    <row r="47" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B47" s="79"/>
       <c r="C47" s="78"/>
       <c r="D47" s="78"/>
@@ -9491,7 +9506,7 @@
       <c r="AZ47" s="78"/>
       <c r="BA47" s="81"/>
     </row>
-    <row r="48" spans="2:82">
+    <row r="48" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B48" s="79"/>
       <c r="C48" s="78"/>
       <c r="D48" s="78"/>
@@ -9545,7 +9560,7 @@
       <c r="AZ48" s="78"/>
       <c r="BA48" s="81"/>
     </row>
-    <row r="49" spans="2:53">
+    <row r="49" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B49" s="79"/>
       <c r="C49" s="78"/>
       <c r="D49" s="78"/>
@@ -9599,7 +9614,7 @@
       <c r="AZ49" s="78"/>
       <c r="BA49" s="81"/>
     </row>
-    <row r="50" spans="2:53">
+    <row r="50" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B50" s="79"/>
       <c r="C50" s="78"/>
       <c r="D50" s="78"/>
@@ -9653,7 +9668,7 @@
       <c r="AZ50" s="78"/>
       <c r="BA50" s="81"/>
     </row>
-    <row r="51" spans="2:53">
+    <row r="51" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B51" s="79"/>
       <c r="C51" s="78"/>
       <c r="D51" s="78"/>
@@ -9707,7 +9722,7 @@
       <c r="AZ51" s="78"/>
       <c r="BA51" s="81"/>
     </row>
-    <row r="52" spans="2:53">
+    <row r="52" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B52" s="79"/>
       <c r="C52" s="78"/>
       <c r="D52" s="78"/>
@@ -9761,7 +9776,7 @@
       <c r="AZ52" s="78"/>
       <c r="BA52" s="81"/>
     </row>
-    <row r="53" spans="2:53">
+    <row r="53" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B53" s="79"/>
       <c r="C53" s="78"/>
       <c r="D53" s="78"/>
@@ -9815,7 +9830,7 @@
       <c r="AZ53" s="78"/>
       <c r="BA53" s="81"/>
     </row>
-    <row r="54" spans="2:53">
+    <row r="54" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B54" s="79"/>
       <c r="C54" s="78"/>
       <c r="D54" s="78"/>
@@ -9869,7 +9884,7 @@
       <c r="AZ54" s="78"/>
       <c r="BA54" s="81"/>
     </row>
-    <row r="55" spans="2:53">
+    <row r="55" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B55" s="79"/>
       <c r="C55" s="78"/>
       <c r="D55" s="78"/>
@@ -9923,7 +9938,7 @@
       <c r="AZ55" s="78"/>
       <c r="BA55" s="81"/>
     </row>
-    <row r="56" spans="2:53">
+    <row r="56" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B56" s="79"/>
       <c r="C56" s="78"/>
       <c r="D56" s="78"/>
@@ -9977,7 +9992,7 @@
       <c r="AZ56" s="78"/>
       <c r="BA56" s="81"/>
     </row>
-    <row r="57" spans="2:53">
+    <row r="57" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B57" s="79"/>
       <c r="C57" s="78"/>
       <c r="D57" s="78"/>
@@ -10031,7 +10046,7 @@
       <c r="AZ57" s="78"/>
       <c r="BA57" s="81"/>
     </row>
-    <row r="58" spans="2:53">
+    <row r="58" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B58" s="79"/>
       <c r="C58" s="78"/>
       <c r="D58" s="78"/>
@@ -10085,7 +10100,7 @@
       <c r="AZ58" s="78"/>
       <c r="BA58" s="84"/>
     </row>
-    <row r="59" spans="2:53">
+    <row r="59" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B59" s="73" t="s">
         <v>47</v>
       </c>
@@ -10143,8 +10158,8 @@
       <c r="AZ59" s="57"/>
       <c r="BA59" s="58"/>
     </row>
-    <row r="61" spans="2:53" ht="15.75" thickBot="1"/>
-    <row r="62" spans="2:53" ht="15.75" thickTop="1">
+    <row r="61" spans="2:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="2:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B62" s="36"/>
       <c r="C62" s="37"/>
       <c r="D62" s="37"/>
@@ -10197,12 +10212,12 @@
       <c r="AW62" s="42"/>
       <c r="AX62" s="42"/>
       <c r="AY62" s="42"/>
-      <c r="AZ62" s="138" t="s">
+      <c r="AZ62" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="BA62" s="139"/>
-    </row>
-    <row r="63" spans="2:53">
+      <c r="BA62" s="133"/>
+    </row>
+    <row r="63" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B63" s="38"/>
       <c r="C63" s="39"/>
       <c r="D63" s="39"/>
@@ -10253,174 +10268,174 @@
       <c r="AW63" s="39"/>
       <c r="AX63" s="39"/>
       <c r="AY63" s="39"/>
-      <c r="AZ63" s="140"/>
-      <c r="BA63" s="141"/>
-    </row>
-    <row r="64" spans="2:53">
-      <c r="B64" s="132" t="s">
+      <c r="AZ63" s="138"/>
+      <c r="BA63" s="139"/>
+    </row>
+    <row r="64" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B64" s="142" t="s">
         <v>53</v>
       </c>
-      <c r="C64" s="133"/>
-      <c r="D64" s="133"/>
-      <c r="E64" s="133"/>
-      <c r="F64" s="133"/>
-      <c r="G64" s="133"/>
-      <c r="H64" s="133"/>
-      <c r="I64" s="133"/>
-      <c r="J64" s="133"/>
-      <c r="K64" s="133"/>
-      <c r="L64" s="133"/>
-      <c r="M64" s="133"/>
-      <c r="N64" s="133"/>
-      <c r="O64" s="133"/>
-      <c r="P64" s="133"/>
-      <c r="Q64" s="133"/>
-      <c r="R64" s="133"/>
-      <c r="S64" s="133"/>
-      <c r="T64" s="133"/>
-      <c r="U64" s="133"/>
-      <c r="V64" s="133"/>
-      <c r="W64" s="133"/>
-      <c r="X64" s="133"/>
-      <c r="Y64" s="133"/>
-      <c r="Z64" s="133"/>
-      <c r="AA64" s="133"/>
-      <c r="AB64" s="133"/>
-      <c r="AC64" s="133"/>
-      <c r="AD64" s="133"/>
-      <c r="AE64" s="133"/>
-      <c r="AF64" s="133"/>
-      <c r="AG64" s="133"/>
-      <c r="AH64" s="133"/>
-      <c r="AI64" s="133"/>
-      <c r="AJ64" s="133"/>
-      <c r="AK64" s="133"/>
-      <c r="AL64" s="133"/>
-      <c r="AM64" s="133"/>
-      <c r="AN64" s="133"/>
-      <c r="AO64" s="133"/>
-      <c r="AP64" s="133"/>
-      <c r="AQ64" s="133"/>
-      <c r="AR64" s="133"/>
-      <c r="AS64" s="133"/>
-      <c r="AT64" s="133"/>
-      <c r="AU64" s="133"/>
-      <c r="AV64" s="133"/>
-      <c r="AW64" s="133"/>
-      <c r="AX64" s="133"/>
-      <c r="AY64" s="133"/>
-      <c r="AZ64" s="133"/>
-      <c r="BA64" s="134"/>
-    </row>
-    <row r="65" spans="2:53">
-      <c r="B65" s="135"/>
-      <c r="C65" s="136"/>
-      <c r="D65" s="136"/>
-      <c r="E65" s="136"/>
-      <c r="F65" s="136"/>
-      <c r="G65" s="136"/>
-      <c r="H65" s="136"/>
-      <c r="I65" s="136"/>
-      <c r="J65" s="136"/>
-      <c r="K65" s="136"/>
-      <c r="L65" s="136"/>
-      <c r="M65" s="136"/>
-      <c r="N65" s="136"/>
-      <c r="O65" s="136"/>
-      <c r="P65" s="136"/>
-      <c r="Q65" s="136"/>
-      <c r="R65" s="136"/>
-      <c r="S65" s="136"/>
-      <c r="T65" s="136"/>
-      <c r="U65" s="136"/>
-      <c r="V65" s="136"/>
-      <c r="W65" s="136"/>
-      <c r="X65" s="136"/>
-      <c r="Y65" s="136"/>
-      <c r="Z65" s="136"/>
-      <c r="AA65" s="136"/>
-      <c r="AB65" s="136"/>
-      <c r="AC65" s="136"/>
-      <c r="AD65" s="136"/>
-      <c r="AE65" s="136"/>
-      <c r="AF65" s="136"/>
-      <c r="AG65" s="136"/>
-      <c r="AH65" s="136"/>
-      <c r="AI65" s="136"/>
-      <c r="AJ65" s="136"/>
-      <c r="AK65" s="136"/>
-      <c r="AL65" s="136"/>
-      <c r="AM65" s="136"/>
-      <c r="AN65" s="136"/>
-      <c r="AO65" s="136"/>
-      <c r="AP65" s="136"/>
-      <c r="AQ65" s="136"/>
-      <c r="AR65" s="136"/>
-      <c r="AS65" s="136"/>
-      <c r="AT65" s="136"/>
-      <c r="AU65" s="136"/>
-      <c r="AV65" s="136"/>
-      <c r="AW65" s="136"/>
-      <c r="AX65" s="136"/>
-      <c r="AY65" s="136"/>
-      <c r="AZ65" s="136"/>
-      <c r="BA65" s="137"/>
-    </row>
-    <row r="66" spans="2:53">
-      <c r="B66" s="142"/>
-      <c r="C66" s="131"/>
-      <c r="D66" s="131"/>
-      <c r="E66" s="131"/>
+      <c r="C64" s="143"/>
+      <c r="D64" s="143"/>
+      <c r="E64" s="143"/>
+      <c r="F64" s="143"/>
+      <c r="G64" s="143"/>
+      <c r="H64" s="143"/>
+      <c r="I64" s="143"/>
+      <c r="J64" s="143"/>
+      <c r="K64" s="143"/>
+      <c r="L64" s="143"/>
+      <c r="M64" s="143"/>
+      <c r="N64" s="143"/>
+      <c r="O64" s="143"/>
+      <c r="P64" s="143"/>
+      <c r="Q64" s="143"/>
+      <c r="R64" s="143"/>
+      <c r="S64" s="143"/>
+      <c r="T64" s="143"/>
+      <c r="U64" s="143"/>
+      <c r="V64" s="143"/>
+      <c r="W64" s="143"/>
+      <c r="X64" s="143"/>
+      <c r="Y64" s="143"/>
+      <c r="Z64" s="143"/>
+      <c r="AA64" s="143"/>
+      <c r="AB64" s="143"/>
+      <c r="AC64" s="143"/>
+      <c r="AD64" s="143"/>
+      <c r="AE64" s="143"/>
+      <c r="AF64" s="143"/>
+      <c r="AG64" s="143"/>
+      <c r="AH64" s="143"/>
+      <c r="AI64" s="143"/>
+      <c r="AJ64" s="143"/>
+      <c r="AK64" s="143"/>
+      <c r="AL64" s="143"/>
+      <c r="AM64" s="143"/>
+      <c r="AN64" s="143"/>
+      <c r="AO64" s="143"/>
+      <c r="AP64" s="143"/>
+      <c r="AQ64" s="143"/>
+      <c r="AR64" s="143"/>
+      <c r="AS64" s="143"/>
+      <c r="AT64" s="143"/>
+      <c r="AU64" s="143"/>
+      <c r="AV64" s="143"/>
+      <c r="AW64" s="143"/>
+      <c r="AX64" s="143"/>
+      <c r="AY64" s="143"/>
+      <c r="AZ64" s="143"/>
+      <c r="BA64" s="144"/>
+    </row>
+    <row r="65" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B65" s="145"/>
+      <c r="C65" s="146"/>
+      <c r="D65" s="146"/>
+      <c r="E65" s="146"/>
+      <c r="F65" s="146"/>
+      <c r="G65" s="146"/>
+      <c r="H65" s="146"/>
+      <c r="I65" s="146"/>
+      <c r="J65" s="146"/>
+      <c r="K65" s="146"/>
+      <c r="L65" s="146"/>
+      <c r="M65" s="146"/>
+      <c r="N65" s="146"/>
+      <c r="O65" s="146"/>
+      <c r="P65" s="146"/>
+      <c r="Q65" s="146"/>
+      <c r="R65" s="146"/>
+      <c r="S65" s="146"/>
+      <c r="T65" s="146"/>
+      <c r="U65" s="146"/>
+      <c r="V65" s="146"/>
+      <c r="W65" s="146"/>
+      <c r="X65" s="146"/>
+      <c r="Y65" s="146"/>
+      <c r="Z65" s="146"/>
+      <c r="AA65" s="146"/>
+      <c r="AB65" s="146"/>
+      <c r="AC65" s="146"/>
+      <c r="AD65" s="146"/>
+      <c r="AE65" s="146"/>
+      <c r="AF65" s="146"/>
+      <c r="AG65" s="146"/>
+      <c r="AH65" s="146"/>
+      <c r="AI65" s="146"/>
+      <c r="AJ65" s="146"/>
+      <c r="AK65" s="146"/>
+      <c r="AL65" s="146"/>
+      <c r="AM65" s="146"/>
+      <c r="AN65" s="146"/>
+      <c r="AO65" s="146"/>
+      <c r="AP65" s="146"/>
+      <c r="AQ65" s="146"/>
+      <c r="AR65" s="146"/>
+      <c r="AS65" s="146"/>
+      <c r="AT65" s="146"/>
+      <c r="AU65" s="146"/>
+      <c r="AV65" s="146"/>
+      <c r="AW65" s="146"/>
+      <c r="AX65" s="146"/>
+      <c r="AY65" s="146"/>
+      <c r="AZ65" s="146"/>
+      <c r="BA65" s="147"/>
+    </row>
+    <row r="66" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B66" s="140"/>
+      <c r="C66" s="141"/>
+      <c r="D66" s="141"/>
+      <c r="E66" s="141"/>
       <c r="F66" s="75"/>
-      <c r="G66" s="131"/>
-      <c r="H66" s="131"/>
-      <c r="I66" s="131"/>
-      <c r="J66" s="131"/>
-      <c r="K66" s="131"/>
-      <c r="L66" s="131"/>
-      <c r="M66" s="131"/>
-      <c r="N66" s="131"/>
-      <c r="O66" s="131"/>
-      <c r="P66" s="131"/>
-      <c r="Q66" s="131"/>
-      <c r="R66" s="131"/>
-      <c r="S66" s="131"/>
-      <c r="T66" s="131"/>
-      <c r="U66" s="131"/>
-      <c r="V66" s="131"/>
-      <c r="W66" s="131"/>
-      <c r="X66" s="131"/>
-      <c r="Y66" s="131"/>
-      <c r="Z66" s="131"/>
-      <c r="AA66" s="131"/>
-      <c r="AB66" s="131"/>
-      <c r="AC66" s="131"/>
-      <c r="AD66" s="131"/>
-      <c r="AE66" s="131"/>
-      <c r="AF66" s="131"/>
-      <c r="AG66" s="131"/>
-      <c r="AH66" s="131"/>
-      <c r="AI66" s="131"/>
-      <c r="AJ66" s="131"/>
-      <c r="AK66" s="131"/>
-      <c r="AL66" s="131"/>
-      <c r="AM66" s="131"/>
-      <c r="AN66" s="131"/>
-      <c r="AO66" s="131"/>
-      <c r="AP66" s="131"/>
-      <c r="AQ66" s="131"/>
-      <c r="AR66" s="131"/>
-      <c r="AS66" s="131"/>
-      <c r="AT66" s="131"/>
-      <c r="AU66" s="131"/>
-      <c r="AV66" s="131"/>
-      <c r="AW66" s="131"/>
-      <c r="AX66" s="131"/>
-      <c r="AY66" s="131"/>
-      <c r="AZ66" s="131"/>
+      <c r="G66" s="141"/>
+      <c r="H66" s="141"/>
+      <c r="I66" s="141"/>
+      <c r="J66" s="141"/>
+      <c r="K66" s="141"/>
+      <c r="L66" s="141"/>
+      <c r="M66" s="141"/>
+      <c r="N66" s="141"/>
+      <c r="O66" s="141"/>
+      <c r="P66" s="141"/>
+      <c r="Q66" s="141"/>
+      <c r="R66" s="141"/>
+      <c r="S66" s="141"/>
+      <c r="T66" s="141"/>
+      <c r="U66" s="141"/>
+      <c r="V66" s="141"/>
+      <c r="W66" s="141"/>
+      <c r="X66" s="141"/>
+      <c r="Y66" s="141"/>
+      <c r="Z66" s="141"/>
+      <c r="AA66" s="141"/>
+      <c r="AB66" s="141"/>
+      <c r="AC66" s="141"/>
+      <c r="AD66" s="141"/>
+      <c r="AE66" s="141"/>
+      <c r="AF66" s="141"/>
+      <c r="AG66" s="141"/>
+      <c r="AH66" s="141"/>
+      <c r="AI66" s="141"/>
+      <c r="AJ66" s="141"/>
+      <c r="AK66" s="141"/>
+      <c r="AL66" s="141"/>
+      <c r="AM66" s="141"/>
+      <c r="AN66" s="141"/>
+      <c r="AO66" s="141"/>
+      <c r="AP66" s="141"/>
+      <c r="AQ66" s="141"/>
+      <c r="AR66" s="141"/>
+      <c r="AS66" s="141"/>
+      <c r="AT66" s="141"/>
+      <c r="AU66" s="141"/>
+      <c r="AV66" s="141"/>
+      <c r="AW66" s="141"/>
+      <c r="AX66" s="141"/>
+      <c r="AY66" s="141"/>
+      <c r="AZ66" s="141"/>
       <c r="BA66" s="76"/>
     </row>
-    <row r="67" spans="2:53">
+    <row r="67" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B67" s="77"/>
       <c r="C67" s="59"/>
       <c r="D67" s="59"/>
@@ -10474,7 +10489,7 @@
       <c r="AZ67" s="59"/>
       <c r="BA67" s="60"/>
     </row>
-    <row r="68" spans="2:53">
+    <row r="68" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B68" s="79"/>
       <c r="C68" s="78"/>
       <c r="D68" s="78"/>
@@ -10528,7 +10543,7 @@
       <c r="AZ68" s="78"/>
       <c r="BA68" s="80"/>
     </row>
-    <row r="69" spans="2:53">
+    <row r="69" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B69" s="79"/>
       <c r="C69" s="78"/>
       <c r="D69" s="78"/>
@@ -10582,7 +10597,7 @@
       <c r="AZ69" s="78"/>
       <c r="BA69" s="80"/>
     </row>
-    <row r="70" spans="2:53">
+    <row r="70" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B70" s="79"/>
       <c r="C70" s="78"/>
       <c r="D70" s="78"/>
@@ -10636,7 +10651,7 @@
       <c r="AZ70" s="78"/>
       <c r="BA70" s="80"/>
     </row>
-    <row r="71" spans="2:53">
+    <row r="71" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B71" s="79"/>
       <c r="C71" s="78"/>
       <c r="D71" s="78"/>
@@ -10690,7 +10705,7 @@
       <c r="AZ71" s="78"/>
       <c r="BA71" s="80"/>
     </row>
-    <row r="72" spans="2:53">
+    <row r="72" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B72" s="79"/>
       <c r="C72" s="78"/>
       <c r="D72" s="78"/>
@@ -10744,7 +10759,7 @@
       <c r="AZ72" s="78"/>
       <c r="BA72" s="80"/>
     </row>
-    <row r="73" spans="2:53">
+    <row r="73" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B73" s="79"/>
       <c r="C73" s="78"/>
       <c r="D73" s="78"/>
@@ -10798,7 +10813,7 @@
       <c r="AZ73" s="78"/>
       <c r="BA73" s="80"/>
     </row>
-    <row r="74" spans="2:53">
+    <row r="74" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B74" s="79"/>
       <c r="C74" s="78"/>
       <c r="D74" s="78"/>
@@ -10852,7 +10867,7 @@
       <c r="AZ74" s="78"/>
       <c r="BA74" s="80"/>
     </row>
-    <row r="75" spans="2:53">
+    <row r="75" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B75" s="79"/>
       <c r="C75" s="78"/>
       <c r="D75" s="78"/>
@@ -10906,7 +10921,7 @@
       <c r="AZ75" s="78"/>
       <c r="BA75" s="80"/>
     </row>
-    <row r="76" spans="2:53">
+    <row r="76" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B76" s="79"/>
       <c r="C76" s="78"/>
       <c r="D76" s="78"/>
@@ -10960,7 +10975,7 @@
       <c r="AZ76" s="78"/>
       <c r="BA76" s="80"/>
     </row>
-    <row r="77" spans="2:53">
+    <row r="77" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B77" s="79"/>
       <c r="C77" s="78"/>
       <c r="D77" s="78"/>
@@ -11014,7 +11029,7 @@
       <c r="AZ77" s="78"/>
       <c r="BA77" s="80"/>
     </row>
-    <row r="78" spans="2:53">
+    <row r="78" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B78" s="79"/>
       <c r="C78" s="78"/>
       <c r="D78" s="78"/>
@@ -11068,7 +11083,7 @@
       <c r="AZ78" s="78"/>
       <c r="BA78" s="80"/>
     </row>
-    <row r="79" spans="2:53">
+    <row r="79" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B79" s="79"/>
       <c r="C79" s="78"/>
       <c r="D79" s="78"/>
@@ -11122,7 +11137,7 @@
       <c r="AZ79" s="78"/>
       <c r="BA79" s="80"/>
     </row>
-    <row r="80" spans="2:53">
+    <row r="80" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B80" s="79"/>
       <c r="C80" s="78"/>
       <c r="D80" s="78"/>
@@ -11176,7 +11191,7 @@
       <c r="AZ80" s="78"/>
       <c r="BA80" s="80"/>
     </row>
-    <row r="81" spans="2:53">
+    <row r="81" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B81" s="79"/>
       <c r="C81" s="78"/>
       <c r="D81" s="78"/>
@@ -11230,7 +11245,7 @@
       <c r="AZ81" s="78"/>
       <c r="BA81" s="80"/>
     </row>
-    <row r="82" spans="2:53">
+    <row r="82" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B82" s="79"/>
       <c r="C82" s="78"/>
       <c r="D82" s="78"/>
@@ -11284,7 +11299,7 @@
       <c r="AZ82" s="78"/>
       <c r="BA82" s="80"/>
     </row>
-    <row r="83" spans="2:53">
+    <row r="83" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B83" s="79"/>
       <c r="C83" s="78"/>
       <c r="D83" s="78"/>
@@ -11338,7 +11353,7 @@
       <c r="AZ83" s="78"/>
       <c r="BA83" s="80"/>
     </row>
-    <row r="84" spans="2:53">
+    <row r="84" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B84" s="79"/>
       <c r="C84" s="78"/>
       <c r="D84" s="78"/>
@@ -11392,7 +11407,7 @@
       <c r="AZ84" s="78"/>
       <c r="BA84" s="80"/>
     </row>
-    <row r="85" spans="2:53">
+    <row r="85" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B85" s="79"/>
       <c r="C85" s="78"/>
       <c r="D85" s="78"/>
@@ -11446,7 +11461,7 @@
       <c r="AZ85" s="78"/>
       <c r="BA85" s="80"/>
     </row>
-    <row r="86" spans="2:53">
+    <row r="86" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B86" s="79"/>
       <c r="C86" s="78"/>
       <c r="D86" s="78"/>
@@ -11500,7 +11515,7 @@
       <c r="AZ86" s="78"/>
       <c r="BA86" s="80"/>
     </row>
-    <row r="87" spans="2:53">
+    <row r="87" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B87" s="79"/>
       <c r="C87" s="78"/>
       <c r="D87" s="78"/>
@@ -11554,7 +11569,7 @@
       <c r="AZ87" s="78"/>
       <c r="BA87" s="80"/>
     </row>
-    <row r="88" spans="2:53">
+    <row r="88" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B88" s="73" t="s">
         <v>47</v>
       </c>
@@ -11614,16 +11629,60 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AW4:AX4"/>
-    <mergeCell ref="AY4:AZ4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AQ4:AR4"/>
+    <mergeCell ref="AW66:AX66"/>
+    <mergeCell ref="AY66:AZ66"/>
+    <mergeCell ref="AM66:AN66"/>
+    <mergeCell ref="AO66:AP66"/>
+    <mergeCell ref="AQ66:AR66"/>
+    <mergeCell ref="AS66:AT66"/>
+    <mergeCell ref="AU66:AV66"/>
+    <mergeCell ref="AC66:AD66"/>
+    <mergeCell ref="AE66:AF66"/>
+    <mergeCell ref="AG66:AH66"/>
+    <mergeCell ref="AI66:AJ66"/>
+    <mergeCell ref="AK66:AL66"/>
+    <mergeCell ref="B33:BA34"/>
+    <mergeCell ref="AZ62:BA63"/>
+    <mergeCell ref="B64:BA65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="S66:T66"/>
+    <mergeCell ref="U66:V66"/>
+    <mergeCell ref="W66:X66"/>
+    <mergeCell ref="Y66:Z66"/>
+    <mergeCell ref="AA66:AB66"/>
+    <mergeCell ref="AQ35:AR35"/>
+    <mergeCell ref="AS35:AT35"/>
+    <mergeCell ref="AU35:AV35"/>
+    <mergeCell ref="AW35:AX35"/>
+    <mergeCell ref="AY35:AZ35"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AK35:AL35"/>
+    <mergeCell ref="AM35:AN35"/>
+    <mergeCell ref="AO35:AP35"/>
+    <mergeCell ref="AZ31:BA32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="Y35:Z35"/>
+    <mergeCell ref="AA35:AB35"/>
+    <mergeCell ref="AC35:AD35"/>
+    <mergeCell ref="AE35:AF35"/>
     <mergeCell ref="AE4:AF4"/>
     <mergeCell ref="AZ2:BA3"/>
     <mergeCell ref="B4:C4"/>
@@ -11640,63 +11699,19 @@
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AZ31:BA32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="Y35:Z35"/>
-    <mergeCell ref="AA35:AB35"/>
-    <mergeCell ref="AC35:AD35"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AK35:AL35"/>
-    <mergeCell ref="AM35:AN35"/>
-    <mergeCell ref="AO35:AP35"/>
-    <mergeCell ref="AQ35:AR35"/>
-    <mergeCell ref="AS35:AT35"/>
-    <mergeCell ref="AU35:AV35"/>
-    <mergeCell ref="AW35:AX35"/>
-    <mergeCell ref="AY35:AZ35"/>
-    <mergeCell ref="B33:BA34"/>
-    <mergeCell ref="AZ62:BA63"/>
-    <mergeCell ref="B64:BA65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="S66:T66"/>
-    <mergeCell ref="U66:V66"/>
-    <mergeCell ref="W66:X66"/>
-    <mergeCell ref="Y66:Z66"/>
-    <mergeCell ref="AA66:AB66"/>
-    <mergeCell ref="AC66:AD66"/>
-    <mergeCell ref="AE66:AF66"/>
-    <mergeCell ref="AG66:AH66"/>
-    <mergeCell ref="AI66:AJ66"/>
-    <mergeCell ref="AK66:AL66"/>
-    <mergeCell ref="AW66:AX66"/>
-    <mergeCell ref="AY66:AZ66"/>
-    <mergeCell ref="AM66:AN66"/>
-    <mergeCell ref="AO66:AP66"/>
-    <mergeCell ref="AQ66:AR66"/>
-    <mergeCell ref="AS66:AT66"/>
-    <mergeCell ref="AU66:AV66"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AW4:AX4"/>
+    <mergeCell ref="AY4:AZ4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AQ4:AR4"/>
   </mergeCells>
-  <pageMargins left="0.2" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.13" right="0.13" top="0.75" bottom="0.41" header="0.3" footer="0.22"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>